--- a/Daily_Data_Case_1.xlsx
+++ b/Daily_Data_Case_1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/christianweissmeier/Documents/Wu_Wien/Q3/Corporate Finance/Team_Project/r-code/Corporate Finance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54FB65B9-9E6D-EB4E-AD88-FA8468312294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C680C715-D3E0-534E-AA54-9BC9285DC829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RAY Index" sheetId="2" r:id="rId1"/>
     <sheet name="ALNY" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -73,7 +73,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -357,7 +357,7 @@
   <dimension ref="A1:B4029"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -32609,7 +32609,7 @@
   <dimension ref="A1:B4027"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Daily_Data_Case_1.xlsx
+++ b/Daily_Data_Case_1.xlsx
@@ -64834,4 +64834,175 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006483248081D4D34083215F2A9507A283" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7e618be4f2b80e79eaadc52ea446d95c">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="85942912-2c17-4d13-bcab-472c0bf30a39" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c80daec75caaa22acc5c26d2fb929cb0" ns2:_="">
+    <xsd:import namespace="85942912-2c17-4d13-bcab-472c0bf30a39"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="85942912-2c17-4d13-bcab-472c0bf30a39" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="11" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8839CFB-D252-471A-9D28-E3882255B8C3}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EF5F2BF3-B3B2-4DB7-AF4F-5E135CEEE1E5}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{23DE7459-72FD-4626-AAAA-ABD16BCF03CF}"/>
 </file>